--- a/02_programme_task/xlsx_out/22.Song of Solomon.xlsx
+++ b/02_programme_task/xlsx_out/22.Song of Solomon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,211 +453,211 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Song of Songs, which is Solomon's. The Bride Confesses Her Love Sh15 e -</t>
+          <t>The Song of Solomon</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Song of Solomon 1:2</t>
+          <t>Song of Solomon 1:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Let him kiss me with the kisses of his mouth! For your love is better than wine; -</t>
+          <t>The Song of a Songs, which is Solomon s. The Bride Confesses Her Love Sh e</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Song of Solomon 1:3</t>
+          <t>Song of Solomon 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>your anointing oils are fragrant; - your name is oil poured out; - therefore virgins love you. -</t>
+          <t>Let him kiss me with the kisses of his mouth! For your b love is better than wine;</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Song of Solomon 1:4</t>
+          <t>Song of Solomon 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Draw me after you; let us run. - The king has brought me into his chambers. Others - We will exult and rejoice in you; - we will extol your love more than wine; - rightly do they love you. She -</t>
+          <t>your c anointing oils are fragrant; your d name is oil poured out; therefore virgins love you.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Song of Solomon 1:5</t>
+          <t>Song of Solomon 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>I m very dark, but lovely, - O daughters of Jerusalem, - like the tents of Kedar, - like the curtains of Solomon. -</t>
+          <t>e Draw me after you; f let us run. g The king has brought me into his chambers. Others We will h exult and rejoice in you; we will extol b your love more than wine; rightly do they love you. She</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Song of Solomon 1:6</t>
+          <t>Song of Solomon 1:5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Do not gaze at me because I am dark, - because the sun has looked upon me. - My mother's sons were angry with me; - they made me keeper of the vineyards, but my own vineyard I have not kept! -</t>
+          <t>I am very dark, but i lovely, O j daughters of Jerusalem, like k the tents of l Kedar, like the curtains of Solomon.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Song of Solomon 1:7</t>
+          <t>Song of Solomon 1:6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tell me, you whom my soul loves, - where you pasture your flock, where you make it lie down at noon; - for why should I be like one who veils herself - beside the flocks of your companions Solomon and His Bride Delight in Each Other He -</t>
+          <t>Do not gaze at me because I am dark, because the sun has looked upon me. My m mother s sons were angry with me; they made me n keeper of o the vineyards, but p my own vineyard I have not kept!</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Song of Solomon 1:8</t>
+          <t>Song of Solomon 1:7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>If you do not know, - O most beautiful among women, - follow in the tracks of the flock, - and pasture your young goats - beside the shepherds tents. -</t>
+          <t>Tell me, you q whom my soul loves, where you r pasture your flock, where you make it s lie down at noon; for why should I be like one who veils herself beside the flocks of your t companions? Solomon and His Bride Delight in Each Other He</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Song of Solomon 1:9</t>
+          <t>Song of Solomon 1:8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>I ompare you, my love, - to a mare among Pharaoh's chariots. -</t>
+          <t>If you do not know, O u most beautiful among women, follow in the tracks of the flock, and pasture your young goats beside the shepherds tents.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Song of Solomon 1:10</t>
+          <t>Song of Solomon 1:9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Your cheeks are lovely with ornaments, - your neck with strings of jewels. Others -</t>
+          <t>I compare you, v my love, to w a mare among Pharaoh s chariots.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Song of Solomon 1:11</t>
+          <t>Song of Solomon 1:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>We will make for yo u ornaments of gold, - studded with silver. She -</t>
+          <t>x Your cheeks are lovely with ornaments, your neck with strings of jewels. Others</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Song of Solomon 1:12</t>
+          <t>Song of Solomon 1:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>While the king was on his couch, - my nard gave forth its fragrance. -</t>
+          <t>We will make for yo u ornaments of gold, studded with silver. She</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Song of Solomon 1:13</t>
+          <t>Song of Solomon 1:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>My beloved is to me a sachet of myrrh - that lies between my breasts. -</t>
+          <t>While y the king was on his couch, my z nard gave forth its fragrance.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Song of Solomon 1:14</t>
+          <t>Song of Solomon 1:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>My beloved is to me a cluster of henna blossoms - in the vineyards of Engedi. He -</t>
+          <t>My beloved is to me a sachet of a myrrh that lies between my breasts.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Song of Solomon 1:15</t>
+          <t>Song of Solomon 1:14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Behold, you are beautiful, my love; - behold, you are beautiful; - your eyes are doves. She -</t>
+          <t>My beloved is to me a cluster of b henna blossoms in the vineyards of c Engedi. He</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Song of Solomon 1:16</t>
+          <t>Song of Solomon 1:15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Behold, you are beautiful, my beloved, truly delightful. Our couch is green; -</t>
+          <t>d Behold, e you are beautiful, f my love; behold, you are beautiful; your g eyes are doves. She</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Song of Solomon 1:17</t>
+          <t>Song of Solomon 1:16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>the beams of our house are cedar; - our rafters are pine. - 2 -</t>
+          <t>Behold, you are beautiful, h my beloved, truly i delightful. Our couch is green;</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Song of Solomon 2:1</t>
+          <t>Song of Solomon 1:17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>I m a ros16 e of Sharon, - a lily of the valleys. He -</t>
+          <t>the beams of our house are j cedar; our rafters are j pine. 2:1 I am a ros e of Sharon, k a lily of the valleys. He</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>As a lily among brambles, - so is my love among the young women. She -</t>
+          <t>As a lily among brambles, so is l my love among the young women. She</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>As an apple tree among the trees of the forest, - so is my beloved among the young men. - With great delight I sat in his shadow, - and his fruit was sweet to my taste. -</t>
+          <t>As an apple tree among the trees of the forest, so is my m beloved among the young men. With great delight I sat n in his shadow, and his o fruit was sweet to my taste.</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>He brought me to the banqueting house, - and his banner over me was love. -</t>
+          <t>He p brought me to the banqueting house, and his q banner over me was love.</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sustain me with raisins; - refresh me with apples, for I am sick with love. -</t>
+          <t>Sustain me with r raisins; refresh me with apples, s for I am sick with love.</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>His left hand is under my head, - and his right hand embraces me! -</t>
+          <t>His t left hand is under my head, and his right hand u embraces me!</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>I adjure you, O daughters of Jerusalem, - by the gazelles or the does of the field, - that you not stir up or awaken love - until it pleases. The Bride Adores Her Beloved -</t>
+          <t>I v adjure you, O w daughters of Jerusalem, by x the gazelles or the does of the field, that you not stir up or awaken love until it pleases. The Bride Adores Her Beloved</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The voice of my beloved! - Behold, he comes, - leaping over the mountains, - bounding over the hills. -</t>
+          <t>The voice of my beloved! Behold, he comes, leaping y over the mountains, bounding over the hills.</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>My beloved is like a gazelle - or a young stag. - Behold, there he stands - behind our wall, - gazing through the windows, - looking through the lattice. -</t>
+          <t>My beloved is like z a gazelle or a young stag. Behold, there he stands behind our wall, gazing through the windows, looking through the lattice.</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>My beloved speaks and says to me: Arise, my love, my beautiful one, - and come away, -</t>
+          <t>My beloved speaks and says to me: a Arise, my love, my beautiful one, and come away,</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>for behold, the winter is past; - the rain is over and gone. -</t>
+          <t>for behold, the winter is past; b the rain is over and gone.</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The flowers appear on the earth, - the time of singin16 g has come, - and the voice of the turtledove - is heard in our land. -</t>
+          <t>c The flowers appear on the earth, the time of singin g has come, and the voice of d the turtledove is heard in our land.</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The fig tree ripens its figs, - and the vines are in blossom; they give forth fragrance. - Arise, my love, my beautiful one, - and come away. -</t>
+          <t>e The fig tree ripens its figs, and f the vines are in blossom; they give forth fragrance. g Arise, my love, my beautiful one, and come away.</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>O my dove, in the clefts of the rock, - in the crannies of the cliff, - let me see your face, - let me hear your voice, - for your voice is sweet, - and your face is lovely. -</t>
+          <t>O my h dove, in the i clefts of the rock, in the crannies of the cliff, let me see your face, let me j hear your voice, for your voice is sweet, and your face is k lovely.</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Catch the foxe16's for us, - the little foxes - that spoil the vineyards, - for our vineyards are in blossom. -</t>
+          <t>Catch l the foxe s for us, the little foxes that spoil the vineyards, f for our vineyards are in blossom.</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>My beloved is mine, and I am his; - he graze16's among the lilies. -</t>
+          <t>m My beloved is mine, and I am his; he n graze s among the lilies.</t>
         </is>
       </c>
     </row>
@@ -849,991 +849,931 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Until the day breathes - and the shadows flee, - turn, my beloved, be like a gazelle - or a young stag on cleft mountains. The Bride's Dream - 3 -</t>
+          <t>Until o the day breathes and p the shadows flee, turn, my beloved, be like q a gazelle or a young stag on cleft mountains. The Bride s Dream 3:1 On my bed r by night I sought s him whom my soul loves; t I sought him, but found him not.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Song of Solomon 3:1</t>
+          <t>Song of Solomon 3:2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>On my bed by night - I sought him whom my soul loves; - I sought him, but found him not. -</t>
+          <t>I will rise now and go about the city, in u the streets and in the squares; I will seek s him whom my soul loves. I sought him, but found him not.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Song of Solomon 3:2</t>
+          <t>Song of Solomon 3:3</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>I will rise now and go about the city, - in the streets and in the squares; - I will seek him whom my soul loves. - I sought him, but found him not. -</t>
+          <t>v The watchmen found me as they went about in the city. Have you seen him whom my soul loves?</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Song of Solomon 3:3</t>
+          <t>Song of Solomon 3:4</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>The watchmen found me - as they went about in the city. - Have you seen him whom my soul loves</t>
+          <t>Scarcely had I passed them when I found s him whom my soul loves. I w held him, and would not let him go until I had x brought him into my mother s house, and into the chamber of y her who conceived me.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Song of Solomon 3:4</t>
+          <t>Song of Solomon 3:5</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Scarcely had I passed them - when I found him whom my soul loves. - I held him, and would not let him go - until I had brought him into my mother's house, and into the chamber of her who conceived me. -</t>
+          <t>z I adjure you, a O daughters of Jerusalem, b by the gazelles or the does of the field, that you not stir up or awaken love until it pleases. Solomon Arrives for the Wedding</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Song of Solomon 3:5</t>
+          <t>Song of Solomon 3:6</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>I jure you, O ughters of Jerusalem, - by the gazelles or the does of the field, - that you not stir up or awaken love - until it pleases. Solomon Arrives for the Wedding -</t>
+          <t>c What is that coming up from the wilderness like d columns of smoke, perfumed with e myrrh and frankincense, with all the fragrant powders of a merchant?</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Song of Solomon 3:6</t>
+          <t>Song of Solomon 3:7</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>What is that coming up from the wilderness - like columns of smoke, - perfumed with myrrh and frankincense, - with all the fragrant powders of a merchant -</t>
+          <t>Behold, it is the litte r of Solomon! Around it are f sixty g mighty men, some of the mighty men of Israel,</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Song of Solomon 3:7</t>
+          <t>Song of Solomon 3:8</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Behold, it is the litte r of Solomon! Around it are sixty mighty men, - some of the mighty men of Israel, -</t>
+          <t>all of them wearing swords and expert in war, each with his h sword at his thigh, against i terror by night.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Song of Solomon 3:8</t>
+          <t>Song of Solomon 3:9</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>all of them wearing swords - and expert in war, - each with his sword at his thigh, - against terror by night. -</t>
+          <t>King Solomon made himself a carriag e from the wood of Lebanon.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Song of Solomon 3:9</t>
+          <t>Song of Solomon 3:10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>King Solomon made himself a carriag e - from the wood of Lebanon. -</t>
+          <t>He made its posts of silver, its back of gold, its seat of purple; its interior was inlaid with love by j the daughters of Jerusalem.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Song of Solomon 3:10</t>
+          <t>Song of Solomon 3:11</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>He made its posts of silver, - its back of gold, its seat of purple; - its interior was inlaid with love - by the daughters of Jerusalem. -</t>
+          <t>Go out, O k daughters of Zion, and look upon King Solomon, with the crown with which his mother crowned him on l the day of his wedding, on the day of the gladness of his heart. Solomon Admires His Bride s Beauty He 4:1 Behold, m you are beautiful, my love, behold, you are beautiful! n Your eyes are doves o behind your veil. p Your hair is like a flock of goats leaping down q the slopes of Gilead.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Song of Solomon 3:11</t>
+          <t>Song of Solomon 4:2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Go out, O daughters of Zion, - and look upon King Solomon, - with the crown with which his mother crowned him - on the day of his wedding, - on the day of the gladness of his heart. Solomon Admires His Bride's Beauty He - 4 -</t>
+          <t>Your r teeth are like a flock of shorn ewes that have come up from the washing, all of which bear twins, and not one among them has lost its young.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Song of Solomon 4:1</t>
+          <t>Song of Solomon 4:3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Behold, you are beautiful, my love, - behold, you are beautiful! - Your eyes are doves - behind your veil. - Your hair is like a flock of goats - leaping down the slopes of Gilead. -</t>
+          <t>Your lips are like s a scarlet thread, and your mouth is t lovely. Your u cheeks are like halves of a pomegranate o behind your veil.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Song of Solomon 4:2</t>
+          <t>Song of Solomon 4:4</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Your teeth are like a flock of shorn ewes - that have come up from the washing, - all of which bear twins, - and not one among them has lost its young. -</t>
+          <t>Your v neck is like the tower of David, built in w rows of stone; on it x hang a thousand shields, all of y them shields of warriors.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Song of Solomon 4:3</t>
+          <t>Song of Solomon 4:5</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Your lips are like a scarlet thread, - and your mouth is lovely. - Your cheeks are like halves of a pomegranate - behind your veil. -</t>
+          <t>Your z two breasts are like two a fawns, twins of a gazelle, that b graze among the lilies.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Song of Solomon 4:4</t>
+          <t>Song of Solomon 4:6</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Your neck is like the tower of David, - built in rows of stone; - on it hang a thousand shields, - all of them shields of warriors. -</t>
+          <t>c Until the day breathes and the shadows flee, I will go away to the mountain of d myrrh and the hill of d frankincense.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Song of Solomon 4:5</t>
+          <t>Song of Solomon 4:7</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Your two breasts are like two fawns, - twins of a gazelle, that graze among the lilies. -</t>
+          <t>e You are altogether beautiful, my love; there is no f flaw in you.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Song of Solomon 4:6</t>
+          <t>Song of Solomon 4:8</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Until the day breathes - and the shadows flee, - I will go away to the mountain of myrrh - and the hill of frankincense. -</t>
+          <t>g Come with me from h Lebanon, my i bride; come with me from h Lebanon. Depar t from the peak of Amana, from the peak of j Senir and k Hermon, from the dens of lions, from the mountains of leopards.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Song of Solomon 4:7</t>
+          <t>Song of Solomon 4:9</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>You are altogether beautiful, my love; - there is no flaw in you. -</t>
+          <t>You have captivated my heart, my l sister, my bride; you have captivated my heart with one glance of your eyes, with one m jewel of your necklace.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Song of Solomon 4:8</t>
+          <t>Song of Solomon 4:10</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Come with me from Lebanon, my bride; - come with me from Lebanon. - Depar16 t from the peak of Amana, - from the peak of Senir and Hermon, - from the dens of lions, - from the mountains of leopards. -</t>
+          <t>How beautiful is your love, my l sister, my bride! How much n better is your love than wine, and o the fragrance of your oils than any spice!</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Song of Solomon 4:9</t>
+          <t>Song of Solomon 4:11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>You have captivated my heart, my sister, my bride; - you have captivated my heart with one glance of your eyes, with one jewel of your necklace. -</t>
+          <t>Your p lips drip nectar, my bride; q honey and milk are under your tongue; the fragrance of your garments is r like the fragrance of h Lebanon.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Song of Solomon 4:10</t>
+          <t>Song of Solomon 4:12</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>How beautiful is your love, my sister, my bride! - How much better is your love than wine, and the fragrance of your oils than any spice! -</t>
+          <t>A garden locked is my l sister, my bride, a spring locked, s a fountain t sealed.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Song of Solomon 4:11</t>
+          <t>Song of Solomon 4:13</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Your lips drip nectar, my bride; - honey and milk are under your tongue; the fragrance of your garments is like the fragrance of Lebanon. -</t>
+          <t>Your shoots are u an orchard of pomegranates with all v choicest fruits, w henna with x nard,</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Song of Solomon 4:12</t>
+          <t>Song of Solomon 4:14</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>A garden locked is my sister, my bride, - a spring locked, a fountain sealed. -</t>
+          <t>nard and saffron, y calamus and y cinnamon, with all trees of z frankincense, a myrrh and b aloes, with all y choice spice s</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Song of Solomon 4:13</t>
+          <t>Song of Solomon 4:15</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Your shoots are an orchard of pomegranates - with all choicest fruits, henna with nard, -</t>
+          <t>a garden fountain, a well of c living water, and flowing streams from h Lebanon.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Song of Solomon 4:14</t>
+          <t>Song of Solomon 4:16</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>nard and saffron, calamus and cinnamon, - with all trees of frankincense, - myrrh and aloes, - with all choice spice16's -</t>
+          <t>Awake, O north wind, and come, O south wind! Blow upon my d garden, let its spices flow. Together in the Garden of Love She e Let my beloved come to his f garden, and eat its v choicest fruits. He 5:1 I g came to my garden, my h sister, my bride, I gathered my i myrrh with my spice, I ate my j honeycomb with my honey, I k drank my wine with my milk. Others Eat, l friends, drink, and be drunk with love! The Bride Searches for Her Beloved She</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Song of Solomon 4:15</t>
+          <t>Song of Solomon 5:2</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>a garden fountain, a well of living water, - and flowing streams from Lebanon. -</t>
+          <t>I slept, but my heart was awake. A sound! My beloved is m knocking. Open to me, my n sister, my o love, my p dove, my q perfect one, for my head is wet with dew, my r locks with the drops of the night.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Song of Solomon 4:16</t>
+          <t>Song of Solomon 5:3</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Awake, O north wind, - and come, O south wind! - Blow upon my garden, - let its spices flow. Together in the Garden of Love She - Let my beloved come to his garden, - and eat its choicest fruits. He - 5 -</t>
+          <t>s I had put off my garment; how could I put it on? I had t bathed my feet; how could I soil them?</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Song of Solomon 5:1</t>
+          <t>Song of Solomon 5:4</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>I came to my garden, my sister, my bride, - I gathered my myrrh with my spice, - I te my honeycomb with my honey, - I drank my wine with my milk. Others - Eat, friends, drink, - and be drunk with love! The Bride Searches for Her Beloved She -</t>
+          <t>My beloved put his hand to the latch, and my heart was thrilled within me.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Song of Solomon 5:2</t>
+          <t>Song of Solomon 5:5</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>I slept, but my heart was awake. - A sound! My beloved is knocking. Open to me, my sister, my love, - my dove, my perfect one, - for my head is wet with dew, - my locks with the drops of the night. -</t>
+          <t>I arose to open to my beloved, and my hands dripped with myrrh, my fingers with u liquid myrrh, on the handles of the bolt.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Song of Solomon 5:3</t>
+          <t>Song of Solomon 5:6</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>I had put off my garment; - how could I put it on - I had bathed my feet; - how could I soil them -</t>
+          <t>I opened to my beloved, but my beloved had turned and gone. My soul failed me when he v spoke. w I sought him, but found him not; x I called him, but he gave no answer.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Song of Solomon 5:4</t>
+          <t>Song of Solomon 5:7</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>My beloved put his hand to the latch, - and my heart was thrilled within me. -</t>
+          <t>y The watchmen found me as they went about in the city; they beat me, they bruised me, they took away my veil, those watchmen of the walls.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Song of Solomon 5:5</t>
+          <t>Song of Solomon 5:8</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>I rose to open to my beloved, - and my hands dripped with myrrh, - my fingers with liquid myrrh, - on the handles of the bolt. -</t>
+          <t>I z adjure you, O a daughters of Jerusalem, if you find my beloved, that you tell him b I am sick with love. Others</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Song of Solomon 5:6</t>
+          <t>Song of Solomon 5:9</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>I opened to my beloved, - but my beloved had turned and gone. - My soul failed me when he spoke. I sought him, but found him not; - I lled him, but he gave no answer. -</t>
+          <t>What is your beloved more than another beloved, O c most beautiful among women? What is your beloved more than another beloved, that you thus z adjure us? The Bride Praises Her Beloved She</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Song of Solomon 5:7</t>
+          <t>Song of Solomon 5:10</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>The watchmen found me - as they went about in the city; - they beat me, they bruised me, - they took away my veil, those watchmen of the walls. -</t>
+          <t>My beloved is radiant and d ruddy, e distinguished among ten thousand.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Song of Solomon 5:8</t>
+          <t>Song of Solomon 5:11</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>I adjure you, O daughters of Jerusalem, - if you find my beloved, - that you tell him - I m sick with love. Others -</t>
+          <t>His head is the finest gold; f his locks are wavy, black as a raven.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Song of Solomon 5:9</t>
+          <t>Song of Solomon 5:12</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>What is your beloved more than another beloved, - O most beautiful among women - What is your beloved more than another beloved, - that you thus adjure us The Bride Praises Her Beloved She -</t>
+          <t>His g eyes are like doves beside streams of water, bathed in milk, sitting beside a full pool.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Song of Solomon 5:10</t>
+          <t>Song of Solomon 5:13</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>My beloved is radiant and ruddy, - distinguished among ten thousand. -</t>
+          <t>His i cheeks are like j beds of spices, mounds of sweet-smelling herbs. His lips are k lilies, dripping u liquid myrrh.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Song of Solomon 5:11</t>
+          <t>Song of Solomon 5:14</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>His head is the finest gold; - his locks are wavy, - black as a raven. -</t>
+          <t>His arms are rods of gold, set with l jewels. His body is polished ivory, bedecked with m sapphires.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Song of Solomon 5:12</t>
+          <t>Song of Solomon 5:15</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>His eyes are like doves - beside streams of water, - bathed in milk, - sitting beside a full pool. -</t>
+          <t>His legs are alabaster columns, set on bases of gold. His appearance is like o Lebanon, choice as the cedars.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Song of Solomon 5:13</t>
+          <t>Song of Solomon 5:16</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>His cheeks are like beds of spices, - mounds of sweet- smelling herbs. - His lips are lilies, - dripping liquid myrrh. -</t>
+          <t>His p mout h is most sweet, and he is altogether desirable. This is my beloved and this is my friend, O a daughters of Jerusalem. Others 6:1 Where has your beloved gone, O c most beautiful among women? Where has your beloved turned, that we may seek him with you? Together in the Garden of Love She</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Song of Solomon 5:14</t>
+          <t>Song of Solomon 6:2</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>His arms are rods of gold, - set with jewels. - His body is polished ivory, - bedecked with sapphires. -</t>
+          <t>My beloved has gone down to his q garden to r the beds of spices, to s graz e in the gardens and to gather t lilies.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Song of Solomon 5:15</t>
+          <t>Song of Solomon 6:3</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>His legs are alabaster columns, - set on bases of gold. - His appearance is like Lebanon, - choice as the cedars. -</t>
+          <t>u I am my beloved s and my beloved is mine; he grazes among the lilies. Solomon and His Bride Delight in Each Other He</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Song of Solomon 5:16</t>
+          <t>Song of Solomon 6:4</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>His mout16 h is most sweet, - and he is altogether desirable. - This is my beloved and this is my friend, - O daughters of Jerusalem. Others - 6 -</t>
+          <t>You are beautiful as v Tirzah, w my love, x lovely as y Jerusalem, z awesome as an army with banners.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Song of Solomon 6:1</t>
+          <t>Song of Solomon 6:5</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Where has your beloved gone, - O most beautiful among women - Where has your beloved turned, - that we may seek him with you Together in the Garden of Love She -</t>
+          <t>Turn away your eyes from me, for they overwhelm m e a Your hair is like a flock of goats leaping down the slopes of Gilead.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Song of Solomon 6:2</t>
+          <t>Song of Solomon 6:6</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>My beloved has gone down to his garden - to the beds of spices, - to graz16 e in the gardens - and to gather lilies. -</t>
+          <t>b Your teeth are like a flock of ewes that have come up from the washing; all of them bear twins; not one among them has lost its young.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Song of Solomon 6:3</t>
+          <t>Song of Solomon 6:7</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>I m my beloved's and my beloved is mine; - he grazes among the lilies. Solomon and His Bride Delight in Each Other He -</t>
+          <t>c Your cheeks are like halves of a pomegranate behind your veil.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Song of Solomon 6:4</t>
+          <t>Song of Solomon 6:8</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>You are beautiful as Tirzah, my love, - lovely as Jerusalem, awesome as an army with banners. -</t>
+          <t>There are d sixty e queens and eighty e concubines, and f virgins without number.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Song of Solomon 6:5</t>
+          <t>Song of Solomon 6:9</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Turn away your eyes from me, - for they overwhelm m16 e16 - Your hair is like a flock of goats - leaping down the slopes of Gilead. -</t>
+          <t>My g dove, my h perfect one, is the only one, the only one of her mother, pure to i her who bore her. j The young women saw her and called her blessed; e the queens and e concubines also, and they praised her.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Song of Solomon 6:6</t>
+          <t>Song of Solomon 6:10</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Your teeth are like a flock of ewes - that have come up from the washing; - all of them bear twins; - not one among them has lost its young. -</t>
+          <t>k Who is this who looks down like the dawn, beautiful as the moon, bright as the sun, l awesome as an army with banners? She</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Song of Solomon 6:7</t>
+          <t>Song of Solomon 6:11</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Your cheeks are like halves of a pomegranate - behind your veil. -</t>
+          <t>I went down to the nut orchard to look at m the blossoms of the valley, n to see whether the vines had budded, whether the pomegranates were in bloom.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Song of Solomon 6:8</t>
+          <t>Song of Solomon 6:12</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>There are sixty queens and eighty concubines, - and virgins without number. -</t>
+          <t>o Before I was aware, my desire set me among p the chariots of my kinsman, a prince. Others</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Song of Solomon 6:9</t>
+          <t>Song of Solomon 6:13</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>My dove, my perfect one, is the only one, - the only one of her mother, pure to her who bore her. - The young women saw her and called her blessed; - the queens and concubines also, and they praised her. -</t>
+          <t>Return, return, O q Shulammite, return, return, that we may look upon you. He Why should you look upon q the Shulammite, as upon r a dance before s two armies? 7:1 How beautiful are your feet in sandals, O t noble daughter! Your rounded thighs are like u jewels, the work of v a master hand.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Song of Solomon 6:10</t>
+          <t>Song of Solomon 7:2</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Who is this who looks down like the dawn, - beautiful as the moon, bright as the sun, - awesome as an army with banners She -</t>
+          <t>Your navel is a rounded bowl that never lacks mixed wine. Your belly is a heap of wheat, encircled with w lilies.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Song of Solomon 6:11</t>
+          <t>Song of Solomon 7:3</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>I went down to the nut orchard - to look at the blossoms of the valley, - to see whether the vines had budded, - whether the pomegranates were in bloom. -</t>
+          <t>x Your two breasts are like two fawns, twins of a gazelle.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Song of Solomon 6:12</t>
+          <t>Song of Solomon 7:4</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Before I was aware, my desire set me - among the chariots of my kinsman, a prince. Others -</t>
+          <t>Your y neck is like an ivory tower. Your z eyes are pools in a Heshbon, by the gate of Bath-rabbim. Your nose is like a tower of b Lebanon, which looks toward c Damascus.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Song of Solomon 7:1</t>
+          <t>Song of Solomon 7:5</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>How beautiful are your feet in sandals, - O noble daughter! - Your rounded thighs are like jewels, - the work of a master hand. -</t>
+          <t>Your head crowns you like e Carmel, and your f flowing locks are like purple; a king is held captive in the tresses.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Song of Solomon 7:2</t>
+          <t>Song of Solomon 7:6</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Your navel is a rounded bowl - that never lacks mixed wine. - Your belly is a heap of wheat, - encircled with lilies. -</t>
+          <t>g How beautiful and h pleasant you are, O loved one, with all your delights!</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Song of Solomon 7:3</t>
+          <t>Song of Solomon 7:7</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Your two breasts are like two fawns, - twins of a gazelle. -</t>
+          <t>Your stature is like a palm tree, and your breasts are like its clusters.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Song of Solomon 7:4</t>
+          <t>Song of Solomon 7:8</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Your neck is like an ivory tower. Your eyes are pools in Heshbon, - by the gate of Bath- rabbim. - Your nose is like a tower of Lebanon, - which looks toward Damascus. -</t>
+          <t>I say I will climb the palm tree and lay hold of its fruit. Oh may your breasts be like i clusters of the vine, and the scent of your breath like apples,</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Song of Solomon 7:5</t>
+          <t>Song of Solomon 7:9</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Your head crowns you like Carmel, - and your flowing locks are like purple; - a king is held captive in the tresses. -</t>
+          <t>and your j mout h like the best wine. She It goes down smoothly for my beloved, gliding over lips and teeth.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Song of Solomon 7:6</t>
+          <t>Song of Solomon 7:10</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>How beautiful and pleasant you are, - O loved one, with all your delights! -</t>
+          <t>k I am my beloved s, l and his desire is for me. The Bride Gives Her Love</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Song of Solomon 7:7</t>
+          <t>Song of Solomon 7:11</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Your stature is like a palm tree, - and your breasts are like its clusters. -</t>
+          <t>m Come, my beloved, let us go out into the fields and lodge in the villages;</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Song of Solomon 7:8</t>
+          <t>Song of Solomon 7:12</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>I say I will climb the palm tree - and lay hold of its fruit. - Oh may your breasts be like clusters of the vine, - and the scent of your breath like apples, -</t>
+          <t>let us go out early to the vineyards n and see whether the vines have budded, whether o the grape blossoms have opened and the pomegranates are in bloom. There I will give you my love.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Song of Solomon 7:9</t>
+          <t>Song of Solomon 7:13</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>and your mout16 h like the best wine. She - It goes down smoothly for my beloved, - gliding over lips and teeth. -</t>
+          <t>p The mandrakes give forth fragrance, and beside our doors are all choice fruits, q new as well as old, which I have laid up for you, O my beloved. Longing for Her Beloved 8:1 Oh that you were like a brother to me who nursed at my mother s breasts! If I found you outside, I would kiss you, and none would despise me.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Song of Solomon 7:10</t>
+          <t>Song of Solomon 8:2</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>I m my beloved's, - and his desire is for me. The Bride Gives Her Love -</t>
+          <t>I would lead you and r bring you into the house of my mothe r she who used to teach me. I would give you s spiced wine to drink, the juice of my pomegranate.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Song of Solomon 7:11</t>
+          <t>Song of Solomon 8:3</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Come, my beloved, - let us go out into the fields and lodge in the villages; 1 -</t>
+          <t>t His left hand is under my head, and his right hand embraces me!</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Song of Solomon 7:12</t>
+          <t>Song of Solomon 8:4</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>let us go out early to the vineyards - and see whether the vines have budded, - whether the grape blossoms have opened - and the pomegranates are in bloom. - There I will give you my love.</t>
+          <t>I u adjure you, O v daughters of Jerusalem, w that you not stir up or awaken love until it pleases.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Song of Solomon 7:13</t>
+          <t>Song of Solomon 8:5</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>The mandrakes give forth fragrance, - and beside our doors are all choice fruits, - new as well as old, - which I have laid up for you, O my beloved. Longing for Her Beloved - 8 -</t>
+          <t>x Who is that coming up from the wilderness, leaning on her beloved? Under the apple tree I awakened you. There your mother was in labor with you; there she who bore you was in labor.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Song of Solomon 8:1</t>
+          <t>Song of Solomon 8:6</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Oh that you were like a brother to me - who nursed at my mother's breasts! - If I found you outside, I would kiss you, - and none would despise me. -</t>
+          <t>Set me as a seal upon your heart, as y a seal upon your arm, for z love is strong as death, a jealous y is fierce as the grave. Its flashes are flashes of fire, the very b flame of the Lord.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Song of Solomon 8:2</t>
+          <t>Song of Solomon 8:7</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>I would lead you and bring you - into the house of my mothe16 r16 she who used to teach me. - I would give you spiced wine to drink, - the juice of my pomegranate. -</t>
+          <t>Many waters cannot quench love, neither can floods drown it. If a man offered for love all the wealth of his c house, h e would be utterly despised. Final Advice Others</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Song of Solomon 8:3</t>
+          <t>Song of Solomon 8:8</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>His left hand is under my head, - and his right hand embraces me! -</t>
+          <t>We have a little sister, and she d has no breasts. What shall we do for our sister on the day when she is spoken for?</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Song of Solomon 8:4</t>
+          <t>Song of Solomon 8:9</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>I adjure you, O daughters of Jerusalem, - that you not stir up or awaken love - until it pleases. -</t>
+          <t>If she is a wall, we will build on her a battlement of silver, but if she is a door, we will enclose her with e boards of cedar. She</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Song of Solomon 8:5</t>
+          <t>Song of Solomon 8:10</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Who is that coming up from the wilderness, - leaning on her beloved - Under the apple tree I awakened you. - There your mother was in labor with you; - there she who bore you was in labor. -</t>
+          <t>f I was a wall, and my g breasts were like towers; then I was in his eyes as one who find s peace.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Song of Solomon 8:6</t>
+          <t>Song of Solomon 8:11</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Set me as a seal upon your heart, - as a seal upon your arm, - for love is strong as death, - jealous16 y is fierce as the grave. - Its flashes are flashes of fire, - the very flame of the Lord . -</t>
+          <t>Solomon had h a vineyard at Baal-hamon; he i let out the vineyard to j keepers; each one was to bring for its fruit k a thousand pieces of silver.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Song of Solomon 8:7</t>
+          <t>Song of Solomon 8:12</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Many waters cannot quench love, - neither can floods drown it. - If a man offered for love - all the wealth of his house, - h16 e would be utterly despised. Final Advice Others -</t>
+          <t>My vineyard, my very own, is before me; you, O Solomon, may have the thousand, and l the keepers of the fruit two hundred. He</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Song of Solomon 8:8</t>
+          <t>Song of Solomon 8:13</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>We have a little sister, - and she has no breasts. - What shall we do for our sister - on the day when she is spoken for -</t>
+          <t>m O you who dwell in the gardens, with n companions listening for your voice; o let me hear it. She</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Song of Solomon 8:9</t>
+          <t>Song of Solomon 8:14</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>If she is a wall, - we will build on her a battlement of silver, - but if she is a door, - we will enclose her with boards of cedar. She -</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Song of Solomon 8:10</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>I was a wall, - and my breasts were like towers; - then I was in his eyes - as one who find16's peace. -</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Song of Solomon 8:11</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Solomon had a vineyard at Baal- hamon; - he let out the vineyard to keepers; each one was to bring for its fruit a thousand pieces of silver. -</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Song of Solomon 8:12</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>My vineyard, my very own, is before me; - you, O Solomon, may have the thousand, - and the keepers of the fruit two hundred. He -</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Song of Solomon 8:13</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>O you who dwell in the gardens, - with companions listening for your voice; - let me hear it. She -</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Song of Solomon 8:14</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Make haste, my beloved, - and be like a gazelle - or a young stag - on the mountains of spices.</t>
+          <t>p Make haste, my beloved, and be q like a gazelle or a young stag on r the mountains of spices.</t>
         </is>
       </c>
     </row>
